--- a/Archive/Report DLMB-1040 Assembly Survey.xlsx
+++ b/Archive/Report DLMB-1040 Assembly Survey.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" tabRatio="600" firstSheet="1" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7360" tabRatio="600" firstSheet="1" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment Summary" sheetId="1" state="visible" r:id="rId1"/>
@@ -705,7 +705,7 @@
       <alignment horizontal="right" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" indent="2"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="7" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>April 12, 2022</t>
+          <t>April 25, 2022</t>
         </is>
       </c>
     </row>
